--- a/个人日报1.10/个人日报 万杨洋 1.10.xlsx
+++ b/个人日报1.10/个人日报 万杨洋 1.10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12990" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="13725" windowHeight="12990" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="6" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="1.8" sheetId="10" r:id="rId5"/>
     <sheet name="1.9" sheetId="11" r:id="rId6"/>
     <sheet name="1.10)" sheetId="12" r:id="rId7"/>
+    <sheet name="1.11" sheetId="13" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="59">
   <si>
     <t xml:space="preserve">东软机密 </t>
   </si>
@@ -291,18 +292,27 @@
   <si>
     <t>实现了调整播放模式及显示播放当前歌曲的功能</t>
   </si>
+  <si>
+    <t>学习了QtAction</t>
+  </si>
+  <si>
+    <t>学习了歌词的显示</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="58">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -375,11 +385,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
@@ -428,11 +433,6 @@
     <font>
       <sz val="10"/>
       <name val="Helv"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -516,25 +516,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,15 +536,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -573,8 +601,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -608,13 +637,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
@@ -629,31 +651,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="35">
@@ -683,13 +683,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,13 +713,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,109 +731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,19 +755,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,50 +1303,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -1363,6 +1319,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="63"/>
       </left>
       <right style="thin">
@@ -1373,15 +1344,6 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1409,165 +1371,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="18" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="14" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="14" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="29" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1640,7 +1640,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1675,31 +1675,31 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1710,7 +1710,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1718,7 +1718,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1726,15 +1726,15 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1749,16 +1749,16 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1773,10 +1773,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1790,15 +1790,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1814,7 +1814,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1834,7 +1834,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1843,24 +1843,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="48" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="39" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="48" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="39" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="41" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="41" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
@@ -1869,83 +1879,73 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8889,6 +8889,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8086725" y="76200"/>
+          <a:ext cx="1828800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -11624,6 +11697,426 @@
   <sheetPr/>
   <dimension ref="B1:J27"/>
   <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="6" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="47.25" customHeight="1" spans="2:10">
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" ht="7.5" customHeight="1" spans="2:10">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="21" customHeight="1" spans="2:10">
+      <c r="B3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1.1</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="63">
+        <v>3</v>
+      </c>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="64"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="65"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B6" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="22">
+        <v>1.1</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="66"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B7" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="25">
+        <v>1.1</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="67"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B8" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="68"/>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B9" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B10" s="34">
+        <v>1</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37">
+        <v>8</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B11" s="34">
+        <v>2</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37">
+        <v>2</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B12" s="40">
+        <v>3</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71"/>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B13" s="34">
+        <v>4</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71"/>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B14" s="34">
+        <v>5</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="71"/>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B15" s="40">
+        <v>6</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="71"/>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B16" s="34">
+        <v>7</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="71"/>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B17" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45">
+        <f>SUM(F10:F16)</f>
+        <v>10</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="73"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="22.5" customHeight="1" spans="2:10">
+      <c r="B18" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="68"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B19" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="74"/>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B20" s="51">
+        <v>1</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="75"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B21" s="56">
+        <v>2</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="75"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B22" s="57">
+        <v>3</v>
+      </c>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="76"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="62"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:J27"/>
+  <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
@@ -11678,7 +12171,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="13">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>17</v>
@@ -11727,7 +12220,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="22">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -11742,7 +12235,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="25">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -11799,7 +12292,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H10" s="39"/>
       <c r="I10" s="70"/>
@@ -11820,12 +12313,12 @@
         <v>2</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="70"/>
       <c r="J11" s="71" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
